--- a/02-soil_depth_statistics_with_ic.xlsx
+++ b/02-soil_depth_statistics_with_ic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yo\Desktop\CECI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B0969-153E-45FF-BA40-C19F290EEF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456FCAC-9353-4375-82CD-FF7BB905881F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Type</t>
   </si>
@@ -32,6 +32,14 @@
   </si>
   <si>
     <t>Average IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                      </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -61,15 +69,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,20 +112,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -414,274 +449,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>0.02</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>24.86</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>1.684255832662912</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
         <v>24.88</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>26.36</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>2.1554666666666682</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>26.38</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>28</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>1.708414634146342</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
         <v>28.02</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>29.26</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>2.1949206349206349</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>29.28</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>33.78</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>1.898008849557522</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
         <v>33.799999999999997</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>34.32</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>2.0774074074074069</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>34.340000000000003</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>38.5200000000006</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>1.8119523809523821</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
         <v>38.540000000000497</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>39.140000000000597</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>39.1600000000007</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>46.8800000000019</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>2.9364341085271328</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>46.900000000001903</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>48.6600000000021</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>2.348089887640449</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6">
         <v>48.680000000002103</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>50.320000000002402</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>2.200963855421687</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>50.340000000002398</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>51.640000000002601</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>2.404696969696968</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>51.660000000002597</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>52.420000000002702</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>3.1910256410256399</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>52.440000000002698</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>53.820000000002899</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>2.403428571428571</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>53.840000000002902</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>62.260000000004297</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>1.795616113744074</v>
       </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>2</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6">
         <v>62.2800000000043</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>64.800000000004701</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>2.2985039370078728</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>64.820000000004697</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>66.160000000004899</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>2.9247058823529408</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>2</v>
       </c>
       <c r="B19">
@@ -695,7 +736,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>1</v>
       </c>
       <c r="B20">
@@ -709,7 +750,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>3</v>
       </c>
       <c r="B21">
@@ -723,7 +764,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22">
@@ -737,7 +778,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>5</v>
       </c>
       <c r="B23">
@@ -751,7 +792,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>3</v>
       </c>
       <c r="B24">
@@ -765,7 +806,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>1</v>
       </c>
       <c r="B25">
@@ -779,7 +820,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>2</v>
       </c>
       <c r="B26">
@@ -793,7 +834,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>5</v>
       </c>
       <c r="B27">
@@ -807,7 +848,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>3</v>
       </c>
       <c r="B28">
@@ -821,7 +862,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29">
@@ -835,7 +876,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>2</v>
       </c>
       <c r="B30">
@@ -849,7 +890,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>3</v>
       </c>
       <c r="B31">
@@ -863,7 +904,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>2</v>
       </c>
       <c r="B32">
@@ -877,7 +918,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>5</v>
       </c>
       <c r="B33">
@@ -891,7 +932,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>2</v>
       </c>
       <c r="B34">
@@ -905,7 +946,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>1</v>
       </c>
       <c r="B35">
@@ -919,7 +960,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>4</v>
       </c>
       <c r="B36">
@@ -933,7 +974,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>2</v>
       </c>
       <c r="B37">
@@ -947,7 +988,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>5</v>
       </c>
       <c r="B38">
@@ -961,7 +1002,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39">
